--- a/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C632"/>
+  <dimension ref="A1:C635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11110,6 +11110,57 @@
         </is>
       </c>
     </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C635"/>
+  <dimension ref="A1:C636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11161,6 +11161,23 @@
         </is>
       </c>
     </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C636"/>
+  <dimension ref="A1:C637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11178,6 +11178,23 @@
         </is>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C637"/>
+  <dimension ref="A1:C638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11195,6 +11195,23 @@
         </is>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C638"/>
+  <dimension ref="A1:C639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11212,6 +11212,23 @@
         </is>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C639"/>
+  <dimension ref="A1:C642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11229,6 +11229,57 @@
         </is>
       </c>
     </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C642"/>
+  <dimension ref="A1:C643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11280,6 +11280,23 @@
         </is>
       </c>
     </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C643"/>
+  <dimension ref="A1:C644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11297,6 +11297,23 @@
         </is>
       </c>
     </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C644"/>
+  <dimension ref="A1:C645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11314,6 +11314,23 @@
         </is>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C645"/>
+  <dimension ref="A1:C646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11331,6 +11331,23 @@
         </is>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>24-12-2021</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>3622.88765134201</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
